--- a/HackList.xlsx
+++ b/HackList.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50AE5E6E-0FBD-43DA-8B68-2FAE7821F564}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E63BD65-1C8B-4118-8B98-0F162649FCDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{80535F5B-7470-47D6-A199-4116E8D7FE86}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="HTB OSCP-like" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'HTB OSCP-like'!$C$3:$K$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'HTB OSCP-like'!$C$5:$I$72</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="83">
   <si>
     <t>Like</t>
   </si>
@@ -110,9 +110,6 @@
     <t>Lame</t>
   </si>
   <si>
-    <t>LaCasaDePapel</t>
-  </si>
-  <si>
     <t>Kotarak</t>
   </si>
   <si>
@@ -206,9 +203,6 @@
     <t>Days remaining</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
     <t>Points</t>
   </si>
   <si>
@@ -227,9 +221,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Challenge yourself with how many days you can crack the entire list</t>
-  </si>
-  <si>
     <t>Count of machines</t>
   </si>
   <si>
@@ -255,6 +246,45 @@
   </si>
   <si>
     <t>Blocky</t>
+  </si>
+  <si>
+    <t>Buff</t>
+  </si>
+  <si>
+    <t>Frolic</t>
+  </si>
+  <si>
+    <t>Postman</t>
+  </si>
+  <si>
+    <t>Mango</t>
+  </si>
+  <si>
+    <t>Traverxec</t>
+  </si>
+  <si>
+    <t>OpenAdmin</t>
+  </si>
+  <si>
+    <t>La Casa De Papel</t>
+  </si>
+  <si>
+    <t>Sizzle</t>
+  </si>
+  <si>
+    <t>Sniper</t>
+  </si>
+  <si>
+    <t>Control</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>Nest</t>
+  </si>
+  <si>
+    <t>Status (0/1)</t>
   </si>
 </sst>
 </file>
@@ -356,12 +386,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF9900CC"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -393,19 +423,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -423,7 +440,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -431,13 +447,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="40% - Accent1" xfId="3" builtinId="31"/>
@@ -757,210 +774,168 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E90CE60-1F9D-4168-9ABC-5F75A5BC5801}">
-  <dimension ref="B3:T60"/>
+  <dimension ref="B1:R72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="8.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" customWidth="1"/>
+    <col min="15" max="15" width="7.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="C3" s="10" t="s">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="L1" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" s="10" t="s">
+      <c r="M1" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="L3" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="N3" s="7"/>
+      <c r="O3" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" s="8" t="e">
+        <f>M4/L4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="L4" s="1"/>
+      <c r="M4" s="1">
+        <f>I72-SUM(I6:I71)</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C5" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="E5" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="F5" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="G5" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="H5" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="K3" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="M3" s="8"/>
-      <c r="N3" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="O3" s="9" t="e">
-        <f>K4/J4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-    </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="C4" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="6" t="s">
+      <c r="I5" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C6" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="2">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1">
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
         <v>4.5999999999999996</v>
       </c>
-      <c r="H4" s="1">
-        <v>20</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1">
-        <f>I60-SUM(I4:I58)</f>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="C5" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1">
+      <c r="H6" s="1">
+        <v>20</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C7" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
         <v>4.0999999999999996</v>
       </c>
-      <c r="H5" s="1">
-        <v>20</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="C6" s="11" t="s">
+      <c r="H7" s="1">
+        <v>20</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C8" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="17">
+        <v>4</v>
+      </c>
+      <c r="G8" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="H8" s="1">
         <v>50</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="7">
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>4</v>
-      </c>
-      <c r="G6" s="1">
-        <v>6.2</v>
-      </c>
-      <c r="H6" s="1">
-        <v>50</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="N6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="C7" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="4">
-        <v>2</v>
-      </c>
-      <c r="G7" s="1">
-        <v>6.3</v>
-      </c>
-      <c r="H7" s="1">
-        <v>30</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="C8" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1">
-        <v>3.4</v>
-      </c>
-      <c r="H8" s="1">
-        <v>20</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0</v>
-      </c>
-      <c r="N8" t="s">
-        <v>65</v>
-      </c>
-      <c r="O8" s="16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="C9" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>0</v>
       </c>
       <c r="F9" s="4">
         <v>2</v>
       </c>
       <c r="G9" s="1">
-        <v>4.7</v>
+        <v>6.3</v>
       </c>
       <c r="H9" s="1">
         <v>30</v>
@@ -969,12 +944,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="C10" s="11" t="s">
-        <v>67</v>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C10" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>0</v>
@@ -983,285 +958,287 @@
         <v>1</v>
       </c>
       <c r="G10" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="H10" s="1">
+        <v>20</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B11" s="13"/>
+      <c r="C11" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>2</v>
+      </c>
+      <c r="G11" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="H11" s="1">
+        <v>30</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B12" s="13"/>
+      <c r="C12" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
         <v>4.5</v>
       </c>
-      <c r="H10" s="1">
-        <v>20</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B11" s="14"/>
-      <c r="C11" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2">
-        <v>1</v>
-      </c>
-      <c r="G11" s="1">
+      <c r="H12" s="1">
+        <v>20</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B13" s="13"/>
+      <c r="C13" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
         <v>3.7</v>
       </c>
-      <c r="H11" s="1">
-        <v>20</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B12" s="14"/>
-      <c r="C12" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="6" t="s">
+      <c r="H13" s="1">
+        <v>20</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B14" s="13"/>
+      <c r="C14" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F14" s="4">
         <v>2</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G14" s="1">
         <v>4.8</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H14" s="1">
         <v>30</v>
       </c>
-      <c r="I12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B13" s="14"/>
-      <c r="C13" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2">
-        <v>1</v>
-      </c>
-      <c r="G13" s="1">
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B15" s="13"/>
+      <c r="C15" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
         <v>3.4</v>
       </c>
-      <c r="H13" s="1">
-        <v>20</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B14" s="14"/>
-      <c r="C14" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F14" s="2">
-        <v>1</v>
-      </c>
-      <c r="G14" s="1">
+      <c r="H15" s="1">
+        <v>20</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B16" s="13"/>
+      <c r="C16" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
         <v>2.4</v>
       </c>
-      <c r="H14" s="1">
-        <v>20</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B15" s="14"/>
-      <c r="C15" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F15" s="2">
-        <v>1</v>
-      </c>
-      <c r="G15" s="1">
+      <c r="H16" s="1">
+        <v>20</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="13"/>
+      <c r="C17" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
         <v>4.5999999999999996</v>
       </c>
-      <c r="H15" s="1">
-        <v>20</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B16" s="14"/>
-      <c r="C16" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F16" s="7">
+      <c r="H17" s="1">
+        <v>20</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="13"/>
+      <c r="C18" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" s="17">
         <v>4</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G18" s="1">
         <v>6.9</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H18" s="1">
         <v>50</v>
       </c>
-      <c r="I16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="14"/>
-      <c r="C17" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F17" s="4">
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="13"/>
+      <c r="C19" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
+      <c r="G19" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="H19" s="10">
+        <v>20</v>
+      </c>
+      <c r="I19" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="13"/>
+      <c r="C20" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" s="4">
         <v>2</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G20" s="1">
         <v>4</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H20" s="1">
         <v>30</v>
       </c>
-      <c r="I17" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="14"/>
-      <c r="C18" s="15" t="s">
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="13"/>
+      <c r="C21" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" s="5">
+        <v>3</v>
+      </c>
+      <c r="G21" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="H21" s="1">
         <v>40</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F18" s="5">
-        <v>3</v>
-      </c>
-      <c r="G18" s="1">
-        <v>6.3</v>
-      </c>
-      <c r="H18" s="1">
-        <v>40</v>
-      </c>
-      <c r="I18" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="14"/>
-      <c r="C19" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F19" s="4">
-        <v>2</v>
-      </c>
-      <c r="G19" s="1">
-        <v>4.2</v>
-      </c>
-      <c r="H19" s="1">
-        <v>30</v>
-      </c>
-      <c r="I19" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="14"/>
-      <c r="C20" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F20" s="2">
-        <v>1</v>
-      </c>
-      <c r="G20" s="1">
-        <v>3.6</v>
-      </c>
-      <c r="H20" s="1">
-        <v>20</v>
-      </c>
-      <c r="I20" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="14"/>
-      <c r="C21" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="4">
-        <v>2</v>
-      </c>
-      <c r="G21" s="1">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="H21" s="1">
-        <v>30</v>
-      </c>
       <c r="I21" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C22" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>1</v>
+      <c r="C22" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>4</v>
@@ -1280,227 +1257,227 @@
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" s="4">
+        <v>2</v>
+      </c>
+      <c r="G23" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="H23" s="1">
+        <v>30</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C24" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="H24" s="1">
+        <v>20</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C25" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="4">
+        <v>2</v>
+      </c>
+      <c r="G25" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H25" s="1">
+        <v>30</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C26" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F23" s="2">
-        <v>1</v>
-      </c>
-      <c r="G23" s="1">
+      <c r="D26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="5">
+        <v>3</v>
+      </c>
+      <c r="G26" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="H26" s="1">
+        <v>40</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C27" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1">
         <v>5.6</v>
       </c>
-      <c r="H23" s="1">
-        <v>20</v>
-      </c>
-      <c r="I23" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C24" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F24" s="2">
-        <v>1</v>
-      </c>
-      <c r="G24" s="1">
+      <c r="H27" s="1">
+        <v>20</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C28" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F28" s="2">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1">
         <v>5.2</v>
       </c>
-      <c r="H24" s="1">
-        <v>20</v>
-      </c>
-      <c r="I24" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C25" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F25" s="2">
-        <v>1</v>
-      </c>
-      <c r="G25" s="1">
+      <c r="H28" s="1">
+        <v>20</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C29" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F29" s="2">
+        <v>1</v>
+      </c>
+      <c r="G29" s="10">
+        <v>5.5</v>
+      </c>
+      <c r="H29" s="10">
+        <v>20</v>
+      </c>
+      <c r="I29" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C30" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F30" s="2">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1">
         <v>3.5</v>
       </c>
-      <c r="H25" s="1">
-        <v>20</v>
-      </c>
-      <c r="I25" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C26" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F26" s="2">
-        <v>1</v>
-      </c>
-      <c r="G26" s="1">
+      <c r="H30" s="1">
+        <v>20</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C31" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F31" s="2">
+        <v>1</v>
+      </c>
+      <c r="G31" s="1">
         <v>3.3</v>
       </c>
-      <c r="H26" s="1">
-        <v>20</v>
-      </c>
-      <c r="I26" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C27" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F27" s="19">
+      <c r="H31" s="1">
+        <v>20</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C32" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F32" s="16">
         <v>2</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G32" s="1">
         <v>4.4000000000000004</v>
-      </c>
-      <c r="H27" s="1">
-        <v>30</v>
-      </c>
-      <c r="I27" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C28" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F28" s="4">
-        <v>2</v>
-      </c>
-      <c r="G28" s="1">
-        <v>4.8</v>
-      </c>
-      <c r="H28" s="1">
-        <v>30</v>
-      </c>
-      <c r="I28" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C29" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F29" s="2">
-        <v>1</v>
-      </c>
-      <c r="G29" s="1">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="H29" s="1">
-        <v>20</v>
-      </c>
-      <c r="I29" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C30" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F30" s="7">
-        <v>4</v>
-      </c>
-      <c r="G30" s="1">
-        <v>7.5</v>
-      </c>
-      <c r="H30" s="1">
-        <v>50</v>
-      </c>
-      <c r="I30" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C31" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F31" s="4">
-        <v>2</v>
-      </c>
-      <c r="G31" s="1">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="H31" s="1">
-        <v>30</v>
-      </c>
-      <c r="I31" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C32" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F32" s="4">
-        <v>2</v>
-      </c>
-      <c r="G32" s="1">
-        <v>5</v>
       </c>
       <c r="H32" s="1">
         <v>30</v>
@@ -1511,53 +1488,53 @@
     </row>
     <row r="33" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C33" s="11" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F33" s="2">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" s="4">
+        <v>2</v>
       </c>
       <c r="G33" s="1">
-        <v>2.9</v>
+        <v>4.8</v>
       </c>
       <c r="H33" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I33" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C34" s="11" t="s">
-        <v>25</v>
+      <c r="C34" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E34" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F34" s="5">
-        <v>3</v>
+      <c r="E34" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F34" s="2">
+        <v>1</v>
       </c>
       <c r="G34" s="1">
-        <v>6.7</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="H34" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="I34" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C35" s="11" t="s">
-        <v>24</v>
+      <c r="C35" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>1</v>
@@ -1565,22 +1542,22 @@
       <c r="E35" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F35" s="2">
-        <v>1</v>
+      <c r="F35" s="17">
+        <v>4</v>
       </c>
       <c r="G35" s="1">
-        <v>5.0999999999999996</v>
+        <v>7.5</v>
       </c>
       <c r="H35" s="1">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="I35" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C36" s="11" t="s">
-        <v>23</v>
+      <c r="C36" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>1</v>
@@ -1588,94 +1565,94 @@
       <c r="E36" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F36" s="2">
-        <v>1</v>
+      <c r="F36" s="4">
+        <v>2</v>
       </c>
       <c r="G36" s="1">
-        <v>2.6</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="H36" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I36" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C37" s="11" t="s">
-        <v>22</v>
+      <c r="C37" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E37" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F37" s="2">
-        <v>1</v>
+      <c r="E37" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37" s="4">
+        <v>2</v>
       </c>
       <c r="G37" s="1">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="H37" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I37" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C38" s="11" t="s">
-        <v>21</v>
+      <c r="C38" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E38" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F38" s="2">
+        <v>1</v>
+      </c>
+      <c r="G38" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="H38" s="1">
+        <v>20</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C39" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E39" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F38" s="4">
-        <v>2</v>
-      </c>
-      <c r="G38" s="1">
-        <v>5.2</v>
-      </c>
-      <c r="H38" s="1">
-        <v>30</v>
-      </c>
-      <c r="I38" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C39" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F39" s="2">
-        <v>1</v>
+      <c r="F39" s="5">
+        <v>3</v>
       </c>
       <c r="G39" s="1">
-        <v>3.7</v>
+        <v>6.7</v>
       </c>
       <c r="H39" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I39" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C40" s="11" t="s">
-        <v>20</v>
+      <c r="C40" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>4</v>
@@ -1684,7 +1661,7 @@
         <v>1</v>
       </c>
       <c r="G40" s="1">
-        <v>3.2</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="H40" s="1">
         <v>20</v>
@@ -1694,8 +1671,8 @@
       </c>
     </row>
     <row r="41" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C41" s="11" t="s">
-        <v>19</v>
+      <c r="C41" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>1</v>
@@ -1707,7 +1684,7 @@
         <v>1</v>
       </c>
       <c r="G41" s="1">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="H41" s="1">
         <v>20</v>
@@ -1717,11 +1694,11 @@
       </c>
     </row>
     <row r="42" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C42" s="11" t="s">
-        <v>18</v>
+      <c r="C42" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>0</v>
@@ -1730,7 +1707,7 @@
         <v>1</v>
       </c>
       <c r="G42" s="1">
-        <v>3.7</v>
+        <v>2.4</v>
       </c>
       <c r="H42" s="1">
         <v>20</v>
@@ -1740,20 +1717,20 @@
       </c>
     </row>
     <row r="43" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C43" s="13" t="s">
-        <v>17</v>
+      <c r="C43" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>0</v>
+      <c r="E43" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="F43" s="4">
         <v>2</v>
       </c>
       <c r="G43" s="1">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="H43" s="1">
         <v>30</v>
@@ -1763,34 +1740,34 @@
       </c>
     </row>
     <row r="44" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C44" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>0</v>
+      <c r="C44" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="F44" s="4">
         <v>2</v>
       </c>
-      <c r="G44" s="1">
-        <v>6.1</v>
-      </c>
-      <c r="H44" s="1">
+      <c r="G44" s="10">
+        <v>5</v>
+      </c>
+      <c r="H44" s="10">
         <v>30</v>
       </c>
-      <c r="I44" s="1">
+      <c r="I44" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C45" s="11" t="s">
-        <v>15</v>
+      <c r="C45" s="10" t="s">
+        <v>66</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>0</v>
@@ -1799,7 +1776,7 @@
         <v>1</v>
       </c>
       <c r="G45" s="1">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="H45" s="1">
         <v>20</v>
@@ -1809,66 +1786,66 @@
       </c>
     </row>
     <row r="46" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C46" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F46" s="4">
-        <v>2</v>
-      </c>
-      <c r="G46" s="1">
-        <v>3.9</v>
-      </c>
-      <c r="H46" s="1">
-        <v>30</v>
-      </c>
-      <c r="I46" s="1">
+      <c r="C46" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F46" s="2">
+        <v>1</v>
+      </c>
+      <c r="G46" s="10">
+        <v>5.2</v>
+      </c>
+      <c r="H46" s="10">
+        <v>20</v>
+      </c>
+      <c r="I46" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C47" s="11" t="s">
-        <v>70</v>
+      <c r="C47" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F47" s="4">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="2">
+        <v>1</v>
       </c>
       <c r="G47" s="1">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="H47" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I47" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C48" s="11" t="s">
-        <v>13</v>
+      <c r="C48" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E48" s="6" t="s">
-        <v>4</v>
+      <c r="E48" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="F48" s="2">
         <v>1</v>
       </c>
       <c r="G48" s="1">
-        <v>5.3</v>
+        <v>4.5</v>
       </c>
       <c r="H48" s="1">
         <v>20</v>
@@ -1878,8 +1855,8 @@
       </c>
     </row>
     <row r="49" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C49" s="11" t="s">
-        <v>12</v>
+      <c r="C49" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>1</v>
@@ -1901,20 +1878,20 @@
       </c>
     </row>
     <row r="50" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C50" s="11" t="s">
-        <v>68</v>
+      <c r="C50" s="12" t="s">
+        <v>17</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F50" s="18">
+      <c r="F50" s="4">
         <v>2</v>
       </c>
       <c r="G50" s="1">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="H50" s="1">
         <v>30</v>
@@ -1924,8 +1901,8 @@
       </c>
     </row>
     <row r="51" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C51" s="11" t="s">
-        <v>11</v>
+      <c r="C51" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>1</v>
@@ -1933,192 +1910,491 @@
       <c r="E51" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F51" s="2">
-        <v>1</v>
+      <c r="F51" s="4">
+        <v>2</v>
       </c>
       <c r="G51" s="1">
-        <v>3.6</v>
+        <v>6.1</v>
       </c>
       <c r="H51" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I51" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C52" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>0</v>
+      <c r="C52" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="F52" s="4">
         <v>2</v>
       </c>
-      <c r="G52" s="1">
+      <c r="G52" s="10">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H52" s="10">
+        <v>30</v>
+      </c>
+      <c r="I52" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C53" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F53" s="2">
+        <v>1</v>
+      </c>
+      <c r="G53" s="10">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H53" s="10">
+        <v>20</v>
+      </c>
+      <c r="I53" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C54" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F54" s="2">
+        <v>1</v>
+      </c>
+      <c r="G54" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="H54" s="1">
+        <v>20</v>
+      </c>
+      <c r="I54" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C55" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F55" s="4">
+        <v>2</v>
+      </c>
+      <c r="G55" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="H55" s="1">
+        <v>30</v>
+      </c>
+      <c r="I55" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C56" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F56" s="4">
+        <v>2</v>
+      </c>
+      <c r="G56" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="H56" s="1">
+        <v>30</v>
+      </c>
+      <c r="I56" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C57" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F57" s="2">
+        <v>1</v>
+      </c>
+      <c r="G57" s="10">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H57" s="10">
+        <v>20</v>
+      </c>
+      <c r="I57" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C58" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="2">
+        <v>1</v>
+      </c>
+      <c r="G58" s="1">
         <v>5.3</v>
       </c>
-      <c r="H52" s="1">
+      <c r="H58" s="1">
+        <v>20</v>
+      </c>
+      <c r="I58" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C59" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F59" s="15">
+        <v>2</v>
+      </c>
+      <c r="G59" s="1">
+        <v>5</v>
+      </c>
+      <c r="H59" s="1">
         <v>30</v>
       </c>
-      <c r="I52" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C53" s="11" t="s">
+      <c r="I59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C60" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F60" s="2">
+        <v>1</v>
+      </c>
+      <c r="G60" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="H60" s="1">
+        <v>20</v>
+      </c>
+      <c r="I60" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C61" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F61" s="2">
+        <v>1</v>
+      </c>
+      <c r="G61" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="H61" s="1">
+        <v>20</v>
+      </c>
+      <c r="I61" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C62" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F62" s="4">
+        <v>2</v>
+      </c>
+      <c r="G62" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="H62" s="1">
+        <v>30</v>
+      </c>
+      <c r="I62" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C63" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F63" s="17">
+        <v>4</v>
+      </c>
+      <c r="G63" s="10">
+        <v>7.5</v>
+      </c>
+      <c r="H63" s="10">
+        <v>50</v>
+      </c>
+      <c r="I63" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C64" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F64" s="4">
+        <v>2</v>
+      </c>
+      <c r="G64" s="10">
+        <v>6</v>
+      </c>
+      <c r="H64" s="10">
+        <v>30</v>
+      </c>
+      <c r="I64" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C65" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F53" s="4">
+      <c r="D65" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F65" s="4">
         <v>2</v>
       </c>
-      <c r="G53" s="1">
+      <c r="G65" s="1">
         <v>4.2</v>
       </c>
-      <c r="H53" s="1">
+      <c r="H65" s="1">
         <v>30</v>
       </c>
-      <c r="I53" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C54" s="11" t="s">
+      <c r="I65" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C66" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F54" s="2">
-        <v>1</v>
-      </c>
-      <c r="G54" s="1">
+      <c r="D66" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F66" s="2">
+        <v>1</v>
+      </c>
+      <c r="G66" s="1">
         <v>4.2</v>
       </c>
-      <c r="H54" s="1">
-        <v>20</v>
-      </c>
-      <c r="I54" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C55" s="11" t="s">
+      <c r="H66" s="1">
+        <v>20</v>
+      </c>
+      <c r="I66" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C67" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F55" s="2">
-        <v>1</v>
-      </c>
-      <c r="G55" s="1">
+      <c r="D67" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F67" s="2">
+        <v>1</v>
+      </c>
+      <c r="G67" s="1">
         <v>4.0999999999999996</v>
       </c>
-      <c r="H55" s="1">
-        <v>20</v>
-      </c>
-      <c r="I55" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C56" s="11" t="s">
+      <c r="H67" s="1">
+        <v>20</v>
+      </c>
+      <c r="I67" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C68" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E56" s="6" t="s">
+      <c r="D68" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E68" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F56" s="5">
+      <c r="F68" s="5">
         <v>3</v>
       </c>
-      <c r="G56" s="1">
+      <c r="G68" s="1">
         <v>6.5</v>
       </c>
-      <c r="H56" s="1">
+      <c r="H68" s="1">
         <v>40</v>
       </c>
-      <c r="I56" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C57" s="11" t="s">
+      <c r="I68" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C69" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F57" s="4">
+      <c r="D69" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F69" s="4">
         <v>2</v>
       </c>
-      <c r="G57" s="1">
+      <c r="G69" s="1">
         <v>6.1</v>
       </c>
-      <c r="H57" s="1">
+      <c r="H69" s="1">
         <v>30</v>
       </c>
-      <c r="I57" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C58" s="11" t="s">
+      <c r="I69" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C70" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F70" s="2">
+        <v>1</v>
+      </c>
+      <c r="G70" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="H70" s="10">
+        <v>20</v>
+      </c>
+      <c r="I70" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C71" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F58" s="2">
-        <v>1</v>
-      </c>
-      <c r="G58" s="1">
+      <c r="D71" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F71" s="2">
+        <v>1</v>
+      </c>
+      <c r="G71" s="1">
         <v>4.0999999999999996</v>
       </c>
-      <c r="H58" s="1">
-        <v>20</v>
-      </c>
-      <c r="I58" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="H60" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="I60">
-        <f>COUNT(I4:I58)</f>
-        <v>55</v>
+      <c r="H71" s="1">
+        <v>20</v>
+      </c>
+      <c r="I71" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="3:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H72" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="I72" s="1">
+        <f>COUNT(I6:I71)</f>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="O8" r:id="rId1" location="gid=1839402159" xr:uid="{CDA34CD3-208C-4D2D-8A2A-20179FD78A38}"/>
+    <hyperlink ref="M1" r:id="rId1" location="gid=1839402159" xr:uid="{CDA34CD3-208C-4D2D-8A2A-20179FD78A38}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/HackList.xlsx
+++ b/HackList.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\oscp-prep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E63BD65-1C8B-4118-8B98-0F162649FCDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF87CEF0-ACF4-488F-90AA-6FBB89B13BF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{80535F5B-7470-47D6-A199-4116E8D7FE86}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="HTB OSCP-like" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'HTB OSCP-like'!$C$5:$I$72</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'HTB OSCP-like'!$C$5:$I$77</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="88">
   <si>
     <t>Like</t>
   </si>
@@ -285,6 +285,21 @@
   </si>
   <si>
     <t>Status (0/1)</t>
+  </si>
+  <si>
+    <t>Book</t>
+  </si>
+  <si>
+    <t>Sauna</t>
+  </si>
+  <si>
+    <t>Cascade</t>
+  </si>
+  <si>
+    <t>Querier</t>
+  </si>
+  <si>
+    <t>Servmon</t>
   </si>
 </sst>
 </file>
@@ -391,7 +406,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -423,6 +438,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -432,7 +460,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
@@ -451,10 +479,11 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="40% - Accent1" xfId="3" builtinId="31"/>
@@ -774,10 +803,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E90CE60-1F9D-4168-9ABC-5F75A5BC5801}">
-  <dimension ref="B1:R72"/>
+  <dimension ref="B1:R77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -825,8 +854,8 @@
     <row r="4" spans="2:18" x14ac:dyDescent="0.3">
       <c r="L4" s="1"/>
       <c r="M4" s="1">
-        <f>I72-SUM(I6:I71)</f>
-        <v>66</v>
+        <f>I77-SUM(I6:I76)</f>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.3">
@@ -859,8 +888,8 @@
       <c r="D6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>4</v>
+      <c r="E6" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="F6" s="2">
         <v>1</v>
@@ -1062,8 +1091,8 @@
       <c r="I14" s="1">
         <v>0</v>
       </c>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B15" s="13"/>
@@ -1116,22 +1145,22 @@
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="13"/>
       <c r="C17" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F17" s="2">
-        <v>1</v>
-      </c>
-      <c r="G17" s="1">
-        <v>4.5999999999999996</v>
+        <v>83</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="4">
+        <v>2</v>
+      </c>
+      <c r="G17" s="10">
+        <v>6.1</v>
       </c>
       <c r="H17" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I17" s="1">
         <v>0</v>
@@ -1140,22 +1169,22 @@
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="13"/>
       <c r="C18" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F18" s="17">
-        <v>4</v>
+      <c r="F18" s="2">
+        <v>1</v>
       </c>
       <c r="G18" s="1">
-        <v>6.9</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="H18" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="I18" s="1">
         <v>0</v>
@@ -1164,70 +1193,70 @@
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="13"/>
       <c r="C19" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>5</v>
+        <v>41</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F19" s="2">
-        <v>1</v>
-      </c>
-      <c r="G19" s="10">
-        <v>3.1</v>
-      </c>
-      <c r="H19" s="10">
-        <v>20</v>
-      </c>
-      <c r="I19" s="10">
+      <c r="F19" s="17">
+        <v>4</v>
+      </c>
+      <c r="G19" s="1">
+        <v>6.9</v>
+      </c>
+      <c r="H19" s="1">
+        <v>50</v>
+      </c>
+      <c r="I19" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="13"/>
       <c r="C20" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F20" s="4">
-        <v>2</v>
-      </c>
-      <c r="G20" s="1">
-        <v>4</v>
-      </c>
-      <c r="H20" s="1">
-        <v>30</v>
-      </c>
-      <c r="I20" s="1">
+      <c r="F20" s="2">
+        <v>1</v>
+      </c>
+      <c r="G20" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="H20" s="10">
+        <v>20</v>
+      </c>
+      <c r="I20" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="13"/>
       <c r="C21" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F21" s="5">
-        <v>3</v>
-      </c>
-      <c r="G21" s="1">
-        <v>6.3</v>
+        <v>85</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="4">
+        <v>2</v>
+      </c>
+      <c r="G21" s="10">
+        <v>5.2</v>
       </c>
       <c r="H21" s="1">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="I21" s="1">
         <v>0</v>
@@ -1235,22 +1264,22 @@
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C22" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="5">
-        <v>3</v>
+        <v>40</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" s="4">
+        <v>2</v>
       </c>
       <c r="G22" s="1">
-        <v>6.4</v>
+        <v>4</v>
       </c>
       <c r="H22" s="1">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="I22" s="1">
         <v>0</v>
@@ -1258,22 +1287,22 @@
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C23" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F23" s="4">
-        <v>2</v>
+      <c r="F23" s="5">
+        <v>3</v>
       </c>
       <c r="G23" s="1">
-        <v>4.2</v>
+        <v>6.3</v>
       </c>
       <c r="H23" s="1">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I23" s="1">
         <v>0</v>
@@ -1281,22 +1310,22 @@
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C24" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F24" s="2">
-        <v>1</v>
+        <v>79</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="5">
+        <v>3</v>
       </c>
       <c r="G24" s="1">
-        <v>3.6</v>
+        <v>6.4</v>
       </c>
       <c r="H24" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I24" s="1">
         <v>0</v>
@@ -1304,19 +1333,19 @@
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C25" s="10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E25" s="6" t="s">
-        <v>4</v>
+      <c r="E25" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="F25" s="4">
         <v>2</v>
       </c>
       <c r="G25" s="1">
-        <v>4.4000000000000004</v>
+        <v>4.2</v>
       </c>
       <c r="H25" s="1">
         <v>30</v>
@@ -1327,22 +1356,22 @@
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C26" s="10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F26" s="5">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" s="2">
+        <v>1</v>
       </c>
       <c r="G26" s="1">
-        <v>6.4</v>
+        <v>3.6</v>
       </c>
       <c r="H26" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="I26" s="1">
         <v>0</v>
@@ -1350,22 +1379,22 @@
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C27" s="10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F27" s="2">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="4">
+        <v>2</v>
       </c>
       <c r="G27" s="1">
-        <v>5.6</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="H27" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I27" s="1">
         <v>0</v>
@@ -1373,22 +1402,22 @@
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C28" s="10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E28" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F28" s="2">
-        <v>1</v>
+      <c r="E28" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="5">
+        <v>3</v>
       </c>
       <c r="G28" s="1">
-        <v>5.2</v>
+        <v>6.4</v>
       </c>
       <c r="H28" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I28" s="1">
         <v>0</v>
@@ -1396,10 +1425,10 @@
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C29" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>1</v>
+        <v>34</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>0</v>
@@ -1407,22 +1436,22 @@
       <c r="F29" s="2">
         <v>1</v>
       </c>
-      <c r="G29" s="10">
-        <v>5.5</v>
-      </c>
-      <c r="H29" s="10">
-        <v>20</v>
-      </c>
-      <c r="I29" s="10">
+      <c r="G29" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="H29" s="1">
+        <v>20</v>
+      </c>
+      <c r="I29" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C30" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>0</v>
@@ -1431,7 +1460,7 @@
         <v>1</v>
       </c>
       <c r="G30" s="1">
-        <v>3.5</v>
+        <v>5.2</v>
       </c>
       <c r="H30" s="1">
         <v>20</v>
@@ -1442,10 +1471,10 @@
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C31" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>5</v>
+        <v>71</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>1</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>0</v>
@@ -1453,57 +1482,57 @@
       <c r="F31" s="2">
         <v>1</v>
       </c>
-      <c r="G31" s="1">
-        <v>3.3</v>
-      </c>
-      <c r="H31" s="1">
-        <v>20</v>
-      </c>
-      <c r="I31" s="1">
+      <c r="G31" s="10">
+        <v>5.5</v>
+      </c>
+      <c r="H31" s="10">
+        <v>20</v>
+      </c>
+      <c r="I31" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C32" s="10" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F32" s="16">
-        <v>2</v>
+      <c r="F32" s="2">
+        <v>1</v>
       </c>
       <c r="G32" s="1">
-        <v>4.4000000000000004</v>
+        <v>3.5</v>
       </c>
       <c r="H32" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I32" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C33" s="11" t="s">
-        <v>30</v>
+      <c r="C33" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F33" s="4">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F33" s="2">
+        <v>1</v>
       </c>
       <c r="G33" s="1">
-        <v>4.8</v>
+        <v>3.3</v>
       </c>
       <c r="H33" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I33" s="1">
         <v>0</v>
@@ -1511,7 +1540,7 @@
     </row>
     <row r="34" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C34" s="10" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>1</v>
@@ -1519,22 +1548,22 @@
       <c r="E34" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F34" s="2">
-        <v>1</v>
+      <c r="F34" s="16">
+        <v>2</v>
       </c>
       <c r="G34" s="1">
         <v>4.4000000000000004</v>
       </c>
       <c r="H34" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I34" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C35" s="10" t="s">
-        <v>28</v>
+      <c r="C35" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>1</v>
@@ -1542,14 +1571,14 @@
       <c r="E35" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F35" s="17">
-        <v>4</v>
+      <c r="F35" s="4">
+        <v>2</v>
       </c>
       <c r="G35" s="1">
-        <v>7.5</v>
+        <v>4.8</v>
       </c>
       <c r="H35" s="1">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I35" s="1">
         <v>0</v>
@@ -1557,7 +1586,7 @@
     </row>
     <row r="36" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C36" s="10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>1</v>
@@ -1565,14 +1594,14 @@
       <c r="E36" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F36" s="4">
-        <v>2</v>
+      <c r="F36" s="2">
+        <v>1</v>
       </c>
       <c r="G36" s="1">
-        <v>4.9000000000000004</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="H36" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I36" s="1">
         <v>0</v>
@@ -1580,22 +1609,22 @@
     </row>
     <row r="37" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C37" s="10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F37" s="4">
-        <v>2</v>
+      <c r="F37" s="17">
+        <v>4</v>
       </c>
       <c r="G37" s="1">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="H37" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="I37" s="1">
         <v>0</v>
@@ -1603,22 +1632,22 @@
     </row>
     <row r="38" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C38" s="10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F38" s="2">
-        <v>1</v>
+      <c r="F38" s="4">
+        <v>2</v>
       </c>
       <c r="G38" s="1">
-        <v>2.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="H38" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I38" s="1">
         <v>0</v>
@@ -1626,22 +1655,22 @@
     </row>
     <row r="39" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C39" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F39" s="5">
-        <v>3</v>
+      <c r="F39" s="4">
+        <v>2</v>
       </c>
       <c r="G39" s="1">
-        <v>6.7</v>
+        <v>5</v>
       </c>
       <c r="H39" s="1">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="I39" s="1">
         <v>0</v>
@@ -1649,19 +1678,19 @@
     </row>
     <row r="40" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C40" s="10" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="F40" s="2">
         <v>1</v>
       </c>
       <c r="G40" s="1">
-        <v>5.0999999999999996</v>
+        <v>2.9</v>
       </c>
       <c r="H40" s="1">
         <v>20</v>
@@ -1672,22 +1701,22 @@
     </row>
     <row r="41" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C41" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F41" s="2">
-        <v>1</v>
+      <c r="E41" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F41" s="5">
+        <v>3</v>
       </c>
       <c r="G41" s="1">
-        <v>2.6</v>
+        <v>6.7</v>
       </c>
       <c r="H41" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I41" s="1">
         <v>0</v>
@@ -1695,19 +1724,19 @@
     </row>
     <row r="42" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C42" s="10" t="s">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="F42" s="2">
         <v>1</v>
       </c>
       <c r="G42" s="1">
-        <v>2.4</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="H42" s="1">
         <v>20</v>
@@ -1718,22 +1747,22 @@
     </row>
     <row r="43" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C43" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E43" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F43" s="4">
-        <v>2</v>
+      <c r="E43" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F43" s="2">
+        <v>1</v>
       </c>
       <c r="G43" s="1">
-        <v>5.2</v>
+        <v>2.6</v>
       </c>
       <c r="H43" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I43" s="1">
         <v>0</v>
@@ -1741,45 +1770,45 @@
     </row>
     <row r="44" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C44" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F44" s="4">
-        <v>2</v>
-      </c>
-      <c r="G44" s="10">
-        <v>5</v>
-      </c>
-      <c r="H44" s="10">
-        <v>30</v>
-      </c>
-      <c r="I44" s="10">
+        <v>22</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F44" s="2">
+        <v>1</v>
+      </c>
+      <c r="G44" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="H44" s="1">
+        <v>20</v>
+      </c>
+      <c r="I44" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C45" s="10" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F45" s="2">
-        <v>1</v>
+      <c r="E45" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="4">
+        <v>2</v>
       </c>
       <c r="G45" s="1">
-        <v>3.7</v>
+        <v>5.2</v>
       </c>
       <c r="H45" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I45" s="1">
         <v>0</v>
@@ -1787,22 +1816,22 @@
     </row>
     <row r="46" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C46" s="10" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F46" s="2">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F46" s="4">
+        <v>2</v>
       </c>
       <c r="G46" s="10">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="H46" s="10">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I46" s="10">
         <v>0</v>
@@ -1810,19 +1839,19 @@
     </row>
     <row r="47" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C47" s="10" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="F47" s="2">
         <v>1</v>
       </c>
       <c r="G47" s="1">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="H47" s="1">
         <v>20</v>
@@ -1833,42 +1862,42 @@
     </row>
     <row r="48" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C48" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>0</v>
+        <v>81</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="F48" s="2">
         <v>1</v>
       </c>
-      <c r="G48" s="1">
-        <v>4.5</v>
-      </c>
-      <c r="H48" s="1">
-        <v>20</v>
-      </c>
-      <c r="I48" s="1">
+      <c r="G48" s="10">
+        <v>5.2</v>
+      </c>
+      <c r="H48" s="10">
+        <v>20</v>
+      </c>
+      <c r="I48" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C49" s="10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="F49" s="2">
         <v>1</v>
       </c>
       <c r="G49" s="1">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="H49" s="1">
         <v>20</v>
@@ -1878,8 +1907,8 @@
       </c>
     </row>
     <row r="50" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C50" s="12" t="s">
-        <v>17</v>
+      <c r="C50" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>1</v>
@@ -1887,14 +1916,14 @@
       <c r="E50" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F50" s="4">
-        <v>2</v>
+      <c r="F50" s="2">
+        <v>1</v>
       </c>
       <c r="G50" s="1">
-        <v>5.3</v>
+        <v>4.5</v>
       </c>
       <c r="H50" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I50" s="1">
         <v>0</v>
@@ -1902,7 +1931,7 @@
     </row>
     <row r="51" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C51" s="10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>1</v>
@@ -1910,129 +1939,129 @@
       <c r="E51" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F51" s="4">
-        <v>2</v>
+      <c r="F51" s="2">
+        <v>1</v>
       </c>
       <c r="G51" s="1">
-        <v>6.1</v>
+        <v>3.7</v>
       </c>
       <c r="H51" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I51" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C52" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>4</v>
+      <c r="C52" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="F52" s="4">
         <v>2</v>
       </c>
-      <c r="G52" s="10">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="H52" s="10">
+      <c r="G52" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="H52" s="1">
         <v>30</v>
       </c>
-      <c r="I52" s="10">
+      <c r="I52" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C53" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D53" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F53" s="2">
-        <v>1</v>
-      </c>
-      <c r="G53" s="10">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="H53" s="10">
-        <v>20</v>
-      </c>
-      <c r="I53" s="10">
+      <c r="F53" s="4">
+        <v>2</v>
+      </c>
+      <c r="G53" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="H53" s="1">
+        <v>30</v>
+      </c>
+      <c r="I53" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C54" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F54" s="2">
-        <v>1</v>
-      </c>
-      <c r="G54" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="H54" s="1">
-        <v>20</v>
-      </c>
-      <c r="I54" s="1">
+        <v>80</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F54" s="4">
+        <v>2</v>
+      </c>
+      <c r="G54" s="10">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H54" s="10">
+        <v>30</v>
+      </c>
+      <c r="I54" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C55" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D55" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D55" s="10" t="s">
         <v>1</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F55" s="4">
-        <v>2</v>
-      </c>
-      <c r="G55" s="1">
-        <v>3.9</v>
-      </c>
-      <c r="H55" s="1">
-        <v>30</v>
-      </c>
-      <c r="I55" s="1">
+      <c r="F55" s="2">
+        <v>1</v>
+      </c>
+      <c r="G55" s="10">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H55" s="10">
+        <v>20</v>
+      </c>
+      <c r="I55" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C56" s="10" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F56" s="4">
-        <v>2</v>
+      <c r="F56" s="2">
+        <v>1</v>
       </c>
       <c r="G56" s="1">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="H56" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I56" s="1">
         <v>0</v>
@@ -2040,45 +2069,45 @@
     </row>
     <row r="57" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C57" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D57" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F57" s="2">
-        <v>1</v>
-      </c>
-      <c r="G57" s="10">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="H57" s="10">
-        <v>20</v>
-      </c>
-      <c r="I57" s="10">
+      <c r="F57" s="4">
+        <v>2</v>
+      </c>
+      <c r="G57" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="H57" s="1">
+        <v>30</v>
+      </c>
+      <c r="I57" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C58" s="10" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E58" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F58" s="2">
-        <v>1</v>
+      <c r="E58" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F58" s="4">
+        <v>2</v>
       </c>
       <c r="G58" s="1">
-        <v>5.3</v>
+        <v>4.2</v>
       </c>
       <c r="H58" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I58" s="1">
         <v>0</v>
@@ -2086,45 +2115,45 @@
     </row>
     <row r="59" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C59" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>5</v>
+        <v>72</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>1</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F59" s="15">
-        <v>2</v>
-      </c>
-      <c r="G59" s="1">
-        <v>5</v>
-      </c>
-      <c r="H59" s="1">
-        <v>30</v>
-      </c>
-      <c r="I59" s="1">
+      <c r="F59" s="2">
+        <v>1</v>
+      </c>
+      <c r="G59" s="10">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H59" s="10">
+        <v>20</v>
+      </c>
+      <c r="I59" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C60" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F60" s="2">
-        <v>1</v>
-      </c>
-      <c r="G60" s="1">
-        <v>3.7</v>
+        <v>86</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F60" s="4">
+        <v>2</v>
+      </c>
+      <c r="G60" s="10">
+        <v>5.0999999999999996</v>
       </c>
       <c r="H60" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I60" s="1">
         <v>0</v>
@@ -2132,19 +2161,19 @@
     </row>
     <row r="61" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C61" s="10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E61" s="3" t="s">
-        <v>0</v>
+      <c r="E61" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="F61" s="2">
         <v>1</v>
       </c>
       <c r="G61" s="1">
-        <v>3.6</v>
+        <v>5.3</v>
       </c>
       <c r="H61" s="1">
         <v>20</v>
@@ -2155,22 +2184,22 @@
     </row>
     <row r="62" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C62" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F62" s="4">
-        <v>2</v>
-      </c>
-      <c r="G62" s="1">
-        <v>5.3</v>
+        <v>84</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="2">
+        <v>1</v>
+      </c>
+      <c r="G62" s="10">
+        <v>4.9000000000000004</v>
       </c>
       <c r="H62" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I62" s="1">
         <v>0</v>
@@ -2178,68 +2207,68 @@
     </row>
     <row r="63" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C63" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D63" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E63" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F63" s="17">
-        <v>4</v>
-      </c>
-      <c r="G63" s="10">
-        <v>7.5</v>
-      </c>
-      <c r="H63" s="10">
-        <v>50</v>
-      </c>
-      <c r="I63" s="10">
+        <v>65</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F63" s="15">
+        <v>2</v>
+      </c>
+      <c r="G63" s="1">
+        <v>5</v>
+      </c>
+      <c r="H63" s="1">
+        <v>30</v>
+      </c>
+      <c r="I63" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C64" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D64" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E64" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F64" s="4">
-        <v>2</v>
-      </c>
-      <c r="G64" s="10">
-        <v>6</v>
-      </c>
-      <c r="H64" s="10">
-        <v>30</v>
-      </c>
-      <c r="I64" s="10">
+        <v>12</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F64" s="2">
+        <v>1</v>
+      </c>
+      <c r="G64" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="H64" s="1">
+        <v>20</v>
+      </c>
+      <c r="I64" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C65" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>1</v>
+        <v>87</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F65" s="4">
-        <v>2</v>
-      </c>
-      <c r="G65" s="1">
-        <v>4.2</v>
+      <c r="F65" s="2">
+        <v>1</v>
+      </c>
+      <c r="G65" s="10">
+        <v>4.0999999999999996</v>
       </c>
       <c r="H65" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I65" s="1">
         <v>0</v>
@@ -2247,7 +2276,7 @@
     </row>
     <row r="66" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C66" s="10" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>1</v>
@@ -2259,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="G66" s="1">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="H66" s="1">
         <v>20</v>
@@ -2270,22 +2299,22 @@
     </row>
     <row r="67" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C67" s="10" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F67" s="2">
-        <v>1</v>
+      <c r="F67" s="4">
+        <v>2</v>
       </c>
       <c r="G67" s="1">
-        <v>4.0999999999999996</v>
+        <v>5.3</v>
       </c>
       <c r="H67" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I67" s="1">
         <v>0</v>
@@ -2293,103 +2322,218 @@
     </row>
     <row r="68" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C68" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D68" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D68" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E68" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F68" s="5">
-        <v>3</v>
-      </c>
-      <c r="G68" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="H68" s="1">
-        <v>40</v>
-      </c>
-      <c r="I68" s="1">
+      <c r="F68" s="17">
+        <v>4</v>
+      </c>
+      <c r="G68" s="10">
+        <v>7.5</v>
+      </c>
+      <c r="H68" s="10">
+        <v>50</v>
+      </c>
+      <c r="I68" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C69" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>0</v>
+        <v>78</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="F69" s="4">
         <v>2</v>
       </c>
-      <c r="G69" s="1">
-        <v>6.1</v>
-      </c>
-      <c r="H69" s="1">
+      <c r="G69" s="10">
+        <v>6</v>
+      </c>
+      <c r="H69" s="10">
         <v>30</v>
       </c>
-      <c r="I69" s="1">
+      <c r="I69" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C70" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D70" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F70" s="2">
-        <v>1</v>
-      </c>
-      <c r="G70" s="10">
-        <v>4.7</v>
-      </c>
-      <c r="H70" s="10">
-        <v>20</v>
-      </c>
-      <c r="I70" s="10">
+      <c r="F70" s="4">
+        <v>2</v>
+      </c>
+      <c r="G70" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="H70" s="1">
+        <v>30</v>
+      </c>
+      <c r="I70" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C71" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F71" s="2">
+        <v>1</v>
+      </c>
+      <c r="G71" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="H71" s="1">
+        <v>20</v>
+      </c>
+      <c r="I71" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C72" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F72" s="2">
+        <v>1</v>
+      </c>
+      <c r="G72" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H72" s="1">
+        <v>20</v>
+      </c>
+      <c r="I72" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C73" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F73" s="5">
+        <v>3</v>
+      </c>
+      <c r="G73" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H73" s="1">
+        <v>40</v>
+      </c>
+      <c r="I73" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C74" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F74" s="4">
         <v>2</v>
       </c>
-      <c r="D71" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F71" s="2">
-        <v>1</v>
-      </c>
-      <c r="G71" s="1">
+      <c r="G74" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="H74" s="1">
+        <v>30</v>
+      </c>
+      <c r="I74" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C75" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F75" s="2">
+        <v>1</v>
+      </c>
+      <c r="G75" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="H75" s="10">
+        <v>20</v>
+      </c>
+      <c r="I75" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C76" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F76" s="2">
+        <v>1</v>
+      </c>
+      <c r="G76" s="1">
         <v>4.0999999999999996</v>
       </c>
-      <c r="H71" s="1">
-        <v>20</v>
-      </c>
-      <c r="I71" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="3:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="H72" s="18" t="s">
+      <c r="H76" s="1">
+        <v>20</v>
+      </c>
+      <c r="I76" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="3:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H77" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="I72" s="1">
-        <f>COUNT(I6:I71)</f>
-        <v>66</v>
+      <c r="I77" s="20">
+        <f>COUNT(I6:I76)</f>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
